--- a/biology/Zoologie/Glaucidae/Glaucidae.xlsx
+++ b/biology/Zoologie/Glaucidae/Glaucidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Glaucidae forment une famille de mollusques gastéropodes de l'ordre des Nudibranches. Selon certains auteurs, elle ne compterait que le genre Glaucus, les autres étant placés dans d'autres familles, comme les Facelinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte actuellement deux genres, comprenant cinq espèces[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species, prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte actuellement deux genres, comprenant cinq espèces :
 Glaucus Forster, 1777
 Glaucus atlanticus Forster, 1777
 Glaucilla Bergh, 1861
@@ -521,10 +535,10 @@
 Glaucilla marginata Reinhardt &amp; Bergh, 1864
 Glaucilla mcfarlanei (Churchill, Valdés &amp; Ó Foighil, 2014)
 Glaucilla thompsoni (Churchill, Valdés &amp; Ó Foighil, 2014)
-En mai 2014, trois nouvelles espèces proches de Glaucus marginatus sont décrites : Glaucus bennettae, Glaucus thompsoni et Glaucus mcfarlanei[2]. Elles sont ensuite transférées dans le genre Glaucilla, ré-érigé pour l'occasion. 
+En mai 2014, trois nouvelles espèces proches de Glaucus marginatus sont décrites : Glaucus bennettae, Glaucus thompsoni et Glaucus mcfarlanei. Elles sont ensuite transférées dans le genre Glaucilla, ré-érigé pour l'occasion. 
 			Glaucus atlanticus
 			Glaucilla marginata
-Selon le Sea Slug Forum, les Glaucidae compteraient cependant les genres et espèces suivants[3] :
+Selon le Sea Slug Forum, les Glaucidae compteraient cependant les genres et espèces suivants :
 Antonietta Schmekel, 1966
 Antonietta janthina
 Antonietta luteorufa (Schmekel, 1966)
